--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/70681460/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/70681460/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9809209108352661</v>
+        <v>0.9705791473388672</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9795294404029846</v>
+        <v>0.9686519503593445</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7473339438438416</v>
+        <v>0.6744157671928406</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9819576740264893</v>
+        <v>0.9720004796981812</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9826869368553162</v>
+        <v>0.9730002880096436</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9825785160064697</v>
+        <v>0.9728540182113647</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9820935726165771</v>
+        <v>0.9720754623413086</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9825785160064697</v>
+        <v>0.9728540182113647</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6352993845939636</v>
+        <v>0.5696979761123657</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9839869737625122</v>
+        <v>0.9748320579528809</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9018812775611877</v>
+        <v>0.8798409104347229</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.981689453125</v>
+        <v>0.9716598987579346</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9817538857460022</v>
+        <v>0.9717022180557251</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.981977105140686</v>
+        <v>0.9720349311828613</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9820167422294617</v>
+        <v>0.97207111120224</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.26484015583992</v>
+        <v>0.2965100705623627</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9831104278564453</v>
+        <v>0.9735931158065796</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9834173321723938</v>
+        <v>0.97397780418396</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9798622727394104</v>
+        <v>0.9691192507743835</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9817945957183838</v>
+        <v>0.971763014793396</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9831057190895081</v>
+        <v>0.9735906720161438</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9834991097450256</v>
+        <v>0.974147617816925</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7462213039398193</v>
+        <v>0.6724919676780701</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2525066137313843</v>
+        <v>0.2898797988891602</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9809728860855103</v>
+        <v>0.9706382155418396</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9799463152885437</v>
+        <v>0.9692915678024292</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9819740056991577</v>
+        <v>0.972014307975769</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9808028936386108</v>
+        <v>0.9704114198684692</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9827788472175598</v>
+        <v>0.9731298685073853</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8714780211448669</v>
+        <v>0.8055410981178284</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9024560451507568</v>
+        <v>0.8804672956466675</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8973743915557861</v>
+        <v>0.8740958571434021</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9827212691307068</v>
+        <v>0.9730609059333801</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8989473581314087</v>
+        <v>0.8760932087898254</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9837430119514465</v>
+        <v>0.9744945764541626</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8986302018165588</v>
+        <v>0.8752323985099792</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8717246651649475</v>
+        <v>0.8057476878166199</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9837537407875061</v>
+        <v>0.9745045304298401</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8632431030273438</v>
+        <v>0.8400569558143616</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8760178685188293</v>
+        <v>0.8113359212875366</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8997938632965088</v>
+        <v>0.8770030736923218</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8785848617553711</v>
+        <v>0.8144404292106628</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8704971075057983</v>
+        <v>0.8040139675140381</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7355991005897522</v>
+        <v>0.6576988101005554</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8682473301887512</v>
+        <v>0.8013462424278259</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9835542440414429</v>
+        <v>0.9742231369018555</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8730962872505188</v>
+        <v>0.8075866103172302</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8688681125640869</v>
+        <v>0.8022426962852478</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9806231260299683</v>
+        <v>0.9701747298240662</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8730962872505188</v>
+        <v>0.8075866103172302</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8732806444168091</v>
+        <v>0.8077649474143982</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9826464653015137</v>
+        <v>0.9729535579681396</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9828921556472778</v>
+        <v>0.9733110666275024</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9839316606521606</v>
+        <v>0.9747619032859802</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8973077535629272</v>
+        <v>0.8740319609642029</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9836812019348145</v>
+        <v>0.9743990302085876</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.98227858543396</v>
+        <v>0.9724418520927429</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9827926754951477</v>
+        <v>0.9731572866439819</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9836047291755676</v>
+        <v>0.9742911458015442</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8999350666999817</v>
+        <v>0.8771533966064453</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.467680960893631</v>
+        <v>0.4896318018436432</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8974053859710693</v>
+        <v>0.8741329312324524</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8974053859710693</v>
+        <v>0.8741329312324524</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.89995938539505</v>
+        <v>0.8771748542785645</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8974053859710693</v>
+        <v>0.8741329312324524</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7057306170463562</v>
+        <v>0.6225992441177368</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9826725721359253</v>
+        <v>0.9729932546615601</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8994976282119751</v>
+        <v>0.8767170906066895</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.978498637676239</v>
+        <v>0.9673303961753845</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8988816738128662</v>
+        <v>0.8759947419166565</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9818102121353149</v>
+        <v>0.9717915654182434</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.981965959072113</v>
+        <v>0.9720185995101929</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8988816738128662</v>
+        <v>0.8759947419166565</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9808017611503601</v>
+        <v>0.9704116582870483</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8988816738128662</v>
+        <v>0.8759947419166565</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9831059575080872</v>
+        <v>0.9735935926437378</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8989481925964355</v>
+        <v>0.876068651676178</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.980809211730957</v>
+        <v>0.9704205393791199</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8989481925964355</v>
+        <v>0.876068651676178</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9753556847572327</v>
+        <v>0.9631832838058472</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9753556847572327</v>
+        <v>0.9631832838058472</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9839381575584412</v>
+        <v>0.9747667908668518</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.899786114692688</v>
+        <v>0.8771524429321289</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.983055591583252</v>
+        <v>0.9735133647918701</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8989148736000061</v>
+        <v>0.8760282397270203</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9807847738265991</v>
+        <v>0.9704009890556335</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9817917346954346</v>
+        <v>0.9717631340026855</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9817860722541809</v>
+        <v>0.9717560410499573</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9818059802055359</v>
+        <v>0.9717796444892883</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9817865490913391</v>
+        <v>0.971751868724823</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9817827343940735</v>
+        <v>0.9717492461204529</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9817990660667419</v>
+        <v>0.9717714190483093</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9840199947357178</v>
+        <v>0.9748650193214417</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2240761518478394</v>
+        <v>0.2148183882236481</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9834641814231873</v>
+        <v>0.9741049408912659</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9808863997459412</v>
+        <v>0.9705343842506409</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9799268841743469</v>
+        <v>0.9692265391349792</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9831700921058655</v>
+        <v>0.9736870527267456</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7463613152503967</v>
+        <v>0.6700279712677002</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.873289167881012</v>
+        <v>0.8082819581031799</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9819610118865967</v>
+        <v>0.9720074534416199</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.716250479221344</v>
+        <v>0.6327175498008728</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9799525141716003</v>
+        <v>0.9692661762237549</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8768625259399414</v>
+        <v>0.8122598528862</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7306661605834961</v>
+        <v>0.6528956294059753</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9809923768043518</v>
+        <v>0.9706517457962036</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8715183138847351</v>
+        <v>0.8055932521820068</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8760541081428528</v>
+        <v>0.8113357424736023</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9010072350502014</v>
+        <v>0.8786690831184387</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9836167097091675</v>
+        <v>0.9743054509162903</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9009336829185486</v>
+        <v>0.8786532282829285</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9752946496009827</v>
+        <v>0.9631257653236389</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9781923890113831</v>
+        <v>0.9669278860092163</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6694443821907043</v>
+        <v>0.5914319157600403</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9825365543365479</v>
+        <v>0.9728090167045593</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7060384154319763</v>
+        <v>0.6231110095977783</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9835671186447144</v>
+        <v>0.9742409586906433</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7060384154319763</v>
+        <v>0.6231110095977783</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9835671186447144</v>
+        <v>0.9742409586906433</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7060384154319763</v>
+        <v>0.6231110095977783</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9833547472953796</v>
+        <v>0.9739296436309814</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9809288382530212</v>
+        <v>0.9706677794456482</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9825671315193176</v>
+        <v>0.9728440046310425</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9798333644866943</v>
+        <v>0.9690877795219421</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9781647920608521</v>
+        <v>0.9668608903884888</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8627663254737854</v>
+        <v>0.7962416410446167</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9820005297660828</v>
+        <v>0.9720492362976074</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9817585945129395</v>
+        <v>0.9717269539833069</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9827015995979309</v>
+        <v>0.9730305075645447</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9747858047485352</v>
+        <v>0.9623872637748718</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9819867610931396</v>
+        <v>0.9720431566238403</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9781972765922546</v>
+        <v>0.9669022560119629</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9782057404518127</v>
+        <v>0.9669200778007507</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9807820320129395</v>
+        <v>0.9703842401504517</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6648449897766113</v>
+        <v>0.5911279916763306</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8973252177238464</v>
+        <v>0.874126672744751</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9822892546653748</v>
+        <v>0.9724564552307129</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8973252177238464</v>
+        <v>0.874126672744751</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9752678275108337</v>
+        <v>0.9630760550498962</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7057306170463562</v>
+        <v>0.6225992441177368</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.980927586555481</v>
+        <v>0.9705886244773865</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8988373279571533</v>
+        <v>0.8759407997131348</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7078207731246948</v>
+        <v>0.6259986162185669</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7238377928733826</v>
+        <v>0.6443145275115967</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.983751118183136</v>
+        <v>0.9745074510574341</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.734778881072998</v>
+        <v>0.6580020189285278</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9834491610527039</v>
+        <v>0.9740697741508484</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.734904944896698</v>
+        <v>0.6582934260368347</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9822798371315002</v>
+        <v>0.9724410176277161</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.7349464893341064</v>
+        <v>0.6584215760231018</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.982584536075592</v>
+        <v>0.972868800163269</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9002987146377563</v>
+        <v>0.8778725862503052</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9810338020324707</v>
+        <v>0.9707154035568237</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9754829406738281</v>
+        <v>0.9629180431365967</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9782041311264038</v>
+        <v>0.9669113755226135</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8973000645637512</v>
+        <v>0.8740401268005371</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9839611053466797</v>
+        <v>0.9748040437698364</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9754044413566589</v>
+        <v>0.9632542133331299</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8646417260169983</v>
+        <v>0.7967943549156189</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9007458090782166</v>
+        <v>0.8783053159713745</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8646417260169983</v>
+        <v>0.7967943549156189</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8997772336006165</v>
+        <v>0.8771584033966064</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9807567000389099</v>
+        <v>0.9703589081764221</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9781679511070251</v>
+        <v>0.9668562412261963</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9781811833381653</v>
+        <v>0.9668864011764526</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9781679511070251</v>
+        <v>0.9668562412261963</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9781679511070251</v>
+        <v>0.9668562412261963</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9781811833381653</v>
+        <v>0.9668864011764526</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9809488654136658</v>
+        <v>0.970604419708252</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9785190224647522</v>
+        <v>0.9673590660095215</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.981981098651886</v>
+        <v>0.9720401167869568</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9832651615142822</v>
+        <v>0.9738117456436157</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9826977849006653</v>
+        <v>0.9730269312858582</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7136798501014709</v>
+        <v>0.6304647922515869</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9835284948348999</v>
+        <v>0.9741867184638977</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9837557077407837</v>
+        <v>0.9745026230812073</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9829400777816772</v>
+        <v>0.973360538482666</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9825640320777893</v>
+        <v>0.9728464484214783</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9809966087341309</v>
+        <v>0.9706779718399048</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9817630648612976</v>
+        <v>0.9717194437980652</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9817823767662048</v>
+        <v>0.9717442989349365</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2111268788576126</v>
+        <v>0.2059508562088013</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9827386736869812</v>
+        <v>0.9730727076530457</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9820172190666199</v>
+        <v>0.9720728993415833</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7058755159378052</v>
+        <v>0.6230887770652771</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8727169632911682</v>
+        <v>0.8070680499076843</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9834837317466736</v>
+        <v>0.9741264581680298</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9825578331947327</v>
+        <v>0.9728491902351379</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9828905463218689</v>
+        <v>0.9733114242553711</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9831116795539856</v>
+        <v>0.9736054539680481</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8987203240394592</v>
+        <v>0.8755543828010559</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9831310510635376</v>
+        <v>0.9736374616622925</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9831587076187134</v>
+        <v>0.9736407995223999</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9819996356964111</v>
+        <v>0.972047746181488</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8648144602775574</v>
+        <v>0.7970224618911743</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9832251071929932</v>
+        <v>0.9737613201141357</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9781579375267029</v>
+        <v>0.9668548703193665</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2225750088691711</v>
+        <v>0.212986633181572</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9784924387931824</v>
+        <v>0.9673138856887817</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2796021997928619</v>
+        <v>0.3117333352565765</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.981938898563385</v>
+        <v>0.9719710946083069</v>
       </c>
     </row>
   </sheetData>
